--- a/Team-Data/2007-08/2-6-2007-08.xlsx
+++ b/Team-Data/2007-08/2-6-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.478</v>
+        <v>0.467</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.443</v>
@@ -696,28 +763,28 @@
         <v>11.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="O2" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P2" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R2" t="n">
         <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -729,31 +796,31 @@
         <v>5.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
         <v>28</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>16</v>
-      </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
@@ -765,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -777,10 +844,10 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -789,16 +856,16 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -807,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.804</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J3" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
         <v>27.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>9.800000000000001</v>
@@ -899,10 +966,10 @@
         <v>41.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.9</v>
@@ -911,16 +978,16 @@
         <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>10.8</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -989,16 +1056,16 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -1108,22 +1175,22 @@
         <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1162,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O5" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
         <v>23.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
         <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1314,13 +1381,13 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
@@ -1335,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1517,10 +1584,10 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
@@ -1535,10 +1602,10 @@
         <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,7 +1661,7 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K7" t="n">
         <v>0.469</v>
@@ -1606,13 +1673,13 @@
         <v>16.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P7" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="n">
         <v>0.821</v>
@@ -1621,25 +1688,25 @@
         <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>42.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V7" t="n">
         <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>21.9</v>
@@ -1648,31 +1715,31 @@
         <v>21.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
         <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
         <v>5</v>
@@ -1687,16 +1754,16 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
@@ -1705,28 +1772,28 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -1758,52 +1825,52 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.604</v>
+        <v>0.617</v>
       </c>
       <c r="H8" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I8" t="n">
         <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L8" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M8" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.337</v>
+        <v>0.333</v>
       </c>
       <c r="O8" t="n">
         <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
         <v>45.1</v>
@@ -1815,7 +1882,7 @@
         <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>7.1</v>
@@ -1824,40 +1891,40 @@
         <v>5.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,13 +1945,13 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1902,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.729</v>
+        <v>0.723</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1964,19 +2031,19 @@
         <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.76</v>
@@ -1988,28 +2055,28 @@
         <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
         <v>97.59999999999999</v>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2045,13 +2112,13 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2063,10 +2130,10 @@
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2233,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
@@ -2248,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2272,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2394,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2409,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
         <v>21</v>
@@ -2424,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -2436,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>11</v>
@@ -2445,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.388</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2513,10 +2580,10 @@
         <v>8.9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
         <v>18.3</v>
@@ -2531,16 +2598,16 @@
         <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
@@ -2561,22 +2628,22 @@
         <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J13" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
@@ -2698,37 +2765,37 @@
         <v>12.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="P13" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T13" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
@@ -2737,13 +2804,13 @@
         <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
         <v>28</v>
@@ -2752,13 +2819,13 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2776,7 +2843,7 @@
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2791,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>10</v>
@@ -2806,22 +2873,22 @@
         <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>25</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
         <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.646</v>
+        <v>0.66</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,76 +2938,76 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R14" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
         <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W14" t="n">
         <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2955,16 +3022,16 @@
         <v>9</v>
       </c>
       <c r="AM14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN14" t="n">
         <v>8</v>
       </c>
-      <c r="AN14" t="n">
-        <v>7</v>
-      </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
@@ -2976,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2997,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>18</v>
@@ -3152,7 +3219,7 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
@@ -3170,10 +3237,10 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3185,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3235,7 +3302,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
@@ -3244,55 +3311,55 @@
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O16" t="n">
         <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.715</v>
+        <v>0.713</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y16" t="n">
         <v>3.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB16" t="n">
         <v>92.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>27</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>17</v>
@@ -3346,13 +3413,13 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3361,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3420,13 +3487,13 @@
         <v>0.448</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
         <v>16.4</v>
@@ -3435,31 +3502,31 @@
         <v>22.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z17" t="n">
         <v>21.6</v>
@@ -3468,28 +3535,28 @@
         <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
         <v>2</v>
       </c>
       <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3522,10 +3589,10 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
         <v>15</v>
@@ -3534,13 +3601,13 @@
         <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,25 +3735,25 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,10 +3768,10 @@
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.408</v>
+        <v>0.417</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J19" t="n">
         <v>77.8</v>
@@ -3790,16 +3857,16 @@
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O19" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P19" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="R19" t="n">
         <v>11.8</v>
@@ -3814,31 +3881,31 @@
         <v>23.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y19" t="n">
         <v>4.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>4.4</v>
       </c>
       <c r="Z19" t="n">
         <v>22.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,25 +3929,25 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>16</v>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3913,7 +3980,7 @@
         <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="H20" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>83.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
@@ -3978,28 +4045,28 @@
         <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
@@ -4008,31 +4075,31 @@
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
         <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
         <v>4</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4062,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>12</v>
@@ -4071,16 +4138,16 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>8</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.286</v>
+        <v>0.292</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
@@ -4154,55 +4221,55 @@
         <v>16.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O21" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R21" t="n">
         <v>12.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V21" t="n">
         <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
         <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
         <v>21.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4223,10 +4290,10 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -4235,10 +4302,10 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>26</v>
@@ -4247,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4259,13 +4326,13 @@
         <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ21" t="n">
         <v>17</v>
@@ -4277,7 +4344,7 @@
         <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.627</v>
+        <v>0.62</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K22" t="n">
         <v>0.468</v>
@@ -4345,10 +4412,10 @@
         <v>29.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R22" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
         <v>32.7</v>
@@ -4363,13 +4430,13 @@
         <v>14.8</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
         <v>21.1</v>
@@ -4378,10 +4445,10 @@
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,19 +4457,19 @@
         <v>6</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4435,22 +4502,22 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -4566,28 +4633,28 @@
         <v>-1.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4638,10 +4705,10 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
         <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.694</v>
+        <v>0.708</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.494</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M24" t="n">
         <v>23.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O24" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P24" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.787</v>
@@ -4715,43 +4782,43 @@
         <v>8.300000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="T24" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U24" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="V24" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z24" t="n">
         <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>109.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4778,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
@@ -4817,13 +4884,13 @@
         <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="H25" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I25" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
         <v>79</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
         <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="O25" t="n">
         <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.769</v>
@@ -4897,58 +4964,58 @@
         <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V25" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC25" t="n">
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>22</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4975,10 +5042,10 @@
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
@@ -4996,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
         <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.468</v>
+        <v>0.478</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
@@ -5052,88 +5119,88 @@
         <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S26" t="n">
         <v>29.6</v>
       </c>
       <c r="T26" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
         <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5142,13 +5209,13 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
@@ -5175,19 +5242,19 @@
         <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.66</v>
+        <v>0.652</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.457</v>
@@ -5246,28 +5313,28 @@
         <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O27" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S27" t="n">
         <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U27" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
@@ -5282,40 +5349,40 @@
         <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>8</v>
@@ -5330,13 +5397,13 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5345,10 +5412,10 @@
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW27" t="n">
         <v>23</v>
@@ -5366,7 +5433,7 @@
         <v>27</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
         <v>36</v>
       </c>
       <c r="G28" t="n">
-        <v>0.265</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J28" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L28" t="n">
         <v>4.3</v>
@@ -5428,7 +5495,7 @@
         <v>12.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O28" t="n">
         <v>17.6</v>
@@ -5440,46 +5507,46 @@
         <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="T28" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X28" t="n">
         <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.1</v>
+        <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>28</v>
@@ -5488,16 +5555,16 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5518,16 +5585,16 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -5539,19 +5606,19 @@
         <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5670,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5718,13 +5785,13 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.64</v>
+        <v>0.633</v>
       </c>
       <c r="H30" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I30" t="n">
         <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L30" t="n">
         <v>4.4</v>
@@ -5792,31 +5859,31 @@
         <v>11.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="P30" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="Q30" t="n">
         <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
         <v>26.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>9.199999999999999</v>
@@ -5828,13 +5895,13 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="AC30" t="n">
         <v>6.1</v>
@@ -5873,10 +5940,10 @@
         <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5888,13 +5955,13 @@
         <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
         <v>6.7</v>
@@ -5974,19 +6041,19 @@
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S31" t="n">
         <v>30</v>
@@ -5995,34 +6062,34 @@
         <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,13 +6104,13 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>12</v>
@@ -6052,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6085,7 +6152,7 @@
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-6-2007-08</t>
+          <t>2008-02-06</t>
         </is>
       </c>
     </row>
